--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\.University\5th Year\STA5066Z\Project\MMID_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492681F6-23EB-4647-B848-DF802955DCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91CA4EC-845A-45E2-A37D-673BF5786312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Humans" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>WeeklyValue</t>
   </si>
   <si>
     <t>b</t>
@@ -636,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,402 +656,501 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <f>D2/52</f>
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C34" si="0">D3/52</f>
         <v>0</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
         <v>75</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>76</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>77</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
         <v>87</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>82</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>88</v>
       </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" t="s">
-        <v>89</v>
-      </c>
       <c r="C34">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>0</v>
       </c>
     </row>
@@ -1067,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E666194-644C-436C-98A9-9C6652DCD47D}">
   <dimension ref="A2:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,62 +1174,62 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1146,7 +1242,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,55 +1262,97 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <f>D2/52</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C7" si="0">D3/52</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
